--- a/variant_33/Задание 9/9.xlsx
+++ b/variant_33/Задание 9/9.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,17 +24,13 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,23 +379,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -478,7 +469,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -555,7 +546,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -632,7 +623,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -709,7 +700,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -786,7 +777,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -863,7 +854,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -940,7 +931,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1017,7 +1008,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1094,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1171,7 +1162,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1248,7 +1239,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1325,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1402,7 +1393,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1479,7 +1470,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1556,7 +1547,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1633,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1710,7 +1701,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1787,7 +1778,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1864,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1941,7 +1932,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2018,7 +2009,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2172,7 +2163,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2326,7 +2317,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2403,7 +2394,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2480,7 +2471,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2557,7 +2548,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2634,7 +2625,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2711,7 +2702,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2788,2394 +2779,847 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B32" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="C32" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="D32" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E32" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G32" s="4">
-        <v>16</v>
-      </c>
-      <c r="H32" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I32" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="J32" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>22</v>
-      </c>
-      <c r="L32" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="M32" s="4">
-        <v>24.1</v>
-      </c>
-      <c r="N32" s="4">
-        <v>25</v>
-      </c>
-      <c r="O32" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="P32" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="R32" s="4">
-        <v>28</v>
-      </c>
-      <c r="S32" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="T32" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="U32" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="V32" s="4">
-        <v>22</v>
-      </c>
-      <c r="W32" s="4">
-        <v>24</v>
-      </c>
-      <c r="X32" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="Y32" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>43222</v>
-      </c>
-      <c r="B33" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="C33" s="4">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E33" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="F33" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G33" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="H33" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="I33" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J33" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="K33" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="L33" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="M33" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="N33" s="4">
-        <v>26.2</v>
-      </c>
-      <c r="O33" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="P33" s="4">
-        <v>26.8</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="R33" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="S33" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="T33" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="U33" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="V33" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="W33" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="X33" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43223</v>
-      </c>
-      <c r="B34" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="C34" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="D34" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F34" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="H34" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>25.1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="M34" s="4">
-        <v>24</v>
-      </c>
-      <c r="N34" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="O34" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="P34" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>31</v>
-      </c>
-      <c r="R34" s="4">
-        <v>28.6</v>
-      </c>
-      <c r="S34" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="T34" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="U34" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="V34" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="W34" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="X34" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>43224</v>
-      </c>
-      <c r="B35" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="D35" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="E35" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="H35" s="4">
-        <v>17</v>
-      </c>
-      <c r="I35" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="J35" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="K35" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="L35" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="N35" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="O35" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="P35" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="R35" s="4">
-        <v>30.4</v>
-      </c>
-      <c r="S35" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="T35" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="U35" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="V35" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="W35" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="X35" s="4">
-        <v>20</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43225</v>
-      </c>
-      <c r="B36" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="C36" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D36" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="F36" s="4">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="H36" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I36" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="J36" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="K36" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="L36" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="M36" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="N36" s="4">
-        <v>26.8</v>
-      </c>
-      <c r="O36" s="4">
-        <v>25</v>
-      </c>
-      <c r="P36" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>28</v>
-      </c>
-      <c r="R36" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S36" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="T36" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="U36" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="V36" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="W36" s="4">
-        <v>23</v>
-      </c>
-      <c r="X36" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>43226</v>
-      </c>
-      <c r="B37" s="4">
-        <v>21</v>
-      </c>
-      <c r="C37" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D37" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E37" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="F37" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="G37" s="4">
-        <v>16</v>
-      </c>
-      <c r="H37" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="J37" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="K37" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="L37" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="M37" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="N37" s="4">
-        <v>26.4</v>
-      </c>
-      <c r="O37" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="P37" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="R37" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="S37" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="T37" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="U37" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="V37" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="W37" s="4">
-        <v>23.8</v>
-      </c>
-      <c r="X37" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>43227</v>
-      </c>
-      <c r="B38" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="C38" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D38" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E38" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="F38" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>15.7</v>
-      </c>
-      <c r="H38" s="4">
-        <v>14.1</v>
-      </c>
-      <c r="I38" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="J38" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="K38" s="4">
-        <v>22</v>
-      </c>
-      <c r="L38" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="M38" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="N38" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="O38" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="P38" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="R38" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="S38" s="4">
-        <v>30</v>
-      </c>
-      <c r="T38" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="U38" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="V38" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="W38" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="X38" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>43228</v>
-      </c>
-      <c r="B39" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C39" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D39" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="E39" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="F39" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="G39" s="4">
-        <v>16</v>
-      </c>
-      <c r="H39" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="I39" s="4">
-        <v>21.7</v>
-      </c>
-      <c r="J39" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="K39" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="L39" s="4">
-        <v>24</v>
-      </c>
-      <c r="M39" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="N39" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="O39" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="P39" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="R39" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S39" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="T39" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="U39" s="4">
-        <v>26.4</v>
-      </c>
-      <c r="V39" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="W39" s="4">
-        <v>20</v>
-      </c>
-      <c r="X39" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="Y39" s="4">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>43229</v>
-      </c>
-      <c r="B40" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C40" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="E40" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="F40" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="G40" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="H40" s="4">
-        <v>14</v>
-      </c>
+    <row r="32" spans="1:25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="4">
-        <v>20</v>
-      </c>
-      <c r="J40" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="K40" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="L40" s="4">
-        <v>26</v>
-      </c>
-      <c r="M40" s="4">
-        <v>27</v>
-      </c>
-      <c r="N40" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="O40" s="4">
-        <v>29</v>
-      </c>
-      <c r="P40" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="R40" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="S40" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="T40" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="U40" s="4">
-        <v>24</v>
-      </c>
-      <c r="V40" s="4">
-        <v>22</v>
-      </c>
-      <c r="W40" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="X40" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>43230</v>
-      </c>
-      <c r="B41" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="C41" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="D41" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E41" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F41" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G41" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="H41" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="I41" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J41" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="K41" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="L41" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="M41" s="4">
-        <v>25.3</v>
-      </c>
-      <c r="N41" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="O41" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="P41" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="R41" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="S41" s="4">
-        <v>27.7</v>
-      </c>
-      <c r="T41" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="U41" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="V41" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="W41" s="4">
-        <v>20</v>
-      </c>
-      <c r="X41" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>43231</v>
-      </c>
-      <c r="B42" s="4">
-        <v>19</v>
-      </c>
-      <c r="C42" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D42" s="4">
-        <v>20</v>
-      </c>
-      <c r="E42" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="F42" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G42" s="4">
-        <v>18</v>
-      </c>
-      <c r="H42" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I42" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="J42" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="K42" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="L42" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="M42" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="N42" s="4">
-        <v>25</v>
-      </c>
-      <c r="O42" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="P42" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="R42" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="S42" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="T42" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="U42" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="V42" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="W42" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="X42" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>43232</v>
-      </c>
-      <c r="B43" s="4">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="D43" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="E43" s="4">
-        <v>19</v>
-      </c>
-      <c r="F43" s="4">
-        <v>19</v>
-      </c>
-      <c r="G43" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H43" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="I43" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="J43" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="K43" s="4">
-        <v>25</v>
-      </c>
-      <c r="L43" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="M43" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="N43" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="O43" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="P43" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>29</v>
-      </c>
-      <c r="R43" s="4">
-        <v>27.7</v>
-      </c>
-      <c r="S43" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="T43" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="U43" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="V43" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="W43" s="4">
-        <v>21.7</v>
-      </c>
-      <c r="X43" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y43" s="4">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43233</v>
-      </c>
-      <c r="B44" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="C44" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="D44" s="4">
-        <v>21</v>
-      </c>
-      <c r="E44" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F44" s="4">
-        <v>15</v>
-      </c>
-      <c r="G44" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="H44" s="4">
-        <v>13.3</v>
-      </c>
-      <c r="I44" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J44" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="K44" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="L44" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="M44" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="N44" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="O44" s="4">
-        <v>26.8</v>
-      </c>
-      <c r="P44" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>28</v>
-      </c>
-      <c r="R44" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="S44" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="T44" s="4">
-        <v>27</v>
-      </c>
-      <c r="U44" s="4">
-        <v>28</v>
-      </c>
-      <c r="V44" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="W44" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="X44" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="Y44" s="4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>43234</v>
-      </c>
-      <c r="B45" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="C45" s="4">
-        <v>19</v>
-      </c>
-      <c r="D45" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E45" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F45" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="G45" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="H45" s="4">
-        <v>13</v>
-      </c>
-      <c r="I45" s="4">
-        <v>22</v>
-      </c>
-      <c r="J45" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="K45" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="L45" s="4">
-        <v>23</v>
-      </c>
-      <c r="M45" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="N45" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="O45" s="4">
-        <v>26.2</v>
-      </c>
-      <c r="P45" s="4">
-        <v>26.2</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="R45" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="S45" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="T45" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="U45" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="V45" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="W45" s="4">
-        <v>20</v>
-      </c>
-      <c r="X45" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>43235</v>
-      </c>
-      <c r="B46" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C46" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="D46" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="E46" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F46" s="4">
-        <v>16</v>
-      </c>
-      <c r="G46" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="I46" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="J46" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="K46" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="L46" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="M46" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="N46" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="O46" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="P46" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="R46" s="4">
-        <v>27</v>
-      </c>
-      <c r="S46" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="T46" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="U46" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="V46" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="W46" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="X46" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>43236</v>
-      </c>
-      <c r="B47" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="C47" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="D47" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="E47" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="G47" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="H47" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="I47" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="J47" s="4">
-        <v>21.7</v>
-      </c>
-      <c r="K47" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="L47" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="M47" s="4">
-        <v>24.8</v>
-      </c>
-      <c r="N47" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="O47" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="R47" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="S47" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="T47" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="U47" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="V47" s="4">
-        <v>26</v>
-      </c>
-      <c r="W47" s="4">
-        <v>22</v>
-      </c>
-      <c r="X47" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="Y47" s="4">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>43237</v>
-      </c>
-      <c r="B48" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="C48" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D48" s="4">
-        <v>19</v>
-      </c>
-      <c r="E48" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="F48" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G48" s="4">
-        <v>15</v>
-      </c>
-      <c r="H48" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="I48" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J48" s="4">
-        <v>23</v>
-      </c>
-      <c r="K48" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="L48" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="M48" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="N48" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="O48" s="4">
-        <v>28</v>
-      </c>
-      <c r="P48" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="R48" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="S48" s="4">
-        <v>31</v>
-      </c>
-      <c r="T48" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="U48" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="V48" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="W48" s="4">
-        <v>22</v>
-      </c>
-      <c r="X48" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="Y48" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>43238</v>
-      </c>
-      <c r="B49" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="C49" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="D49" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="E49" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="F49" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="G49" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H49" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="I49" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J49" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="K49" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="L49" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="M49" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="N49" s="4">
-        <v>25</v>
-      </c>
-      <c r="O49" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="P49" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="R49" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="S49" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="T49" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="U49" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="V49" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="W49" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="X49" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="Y49" s="4">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>43239</v>
-      </c>
-      <c r="B50" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="C50" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="D50" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="E50" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="F50" s="4">
-        <v>18</v>
-      </c>
-      <c r="G50" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="H50" s="4">
-        <v>14</v>
-      </c>
-      <c r="I50" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J50" s="4">
-        <v>21.3</v>
-      </c>
-      <c r="K50" s="4">
-        <v>26</v>
-      </c>
-      <c r="L50" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="M50" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="N50" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="O50" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="P50" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="R50" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="S50" s="4">
-        <v>28</v>
-      </c>
-      <c r="T50" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="U50" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="V50" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="W50" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="X50" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="Y50" s="4">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>43240</v>
-      </c>
-      <c r="B51" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="C51" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="D51" s="4">
-        <v>21</v>
-      </c>
-      <c r="E51" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="F51" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G51" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H51" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="I51" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="J51" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="K51" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="L51" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="M51" s="4">
-        <v>24.2</v>
-      </c>
-      <c r="N51" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="O51" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="P51" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="R51" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="S51" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="T51" s="4">
-        <v>28.6</v>
-      </c>
-      <c r="U51" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="V51" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="W51" s="4">
-        <v>22</v>
-      </c>
-      <c r="X51" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>43241</v>
-      </c>
-      <c r="B52" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="C52" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="D52" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="E52" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="F52" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="G52" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="H52" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I52" s="4">
-        <v>20</v>
-      </c>
-      <c r="J52" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="K52" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="L52" s="4">
-        <v>23</v>
-      </c>
-      <c r="M52" s="4">
-        <v>27.7</v>
-      </c>
-      <c r="N52" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="O52" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="P52" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="R52" s="4">
-        <v>28</v>
-      </c>
-      <c r="S52" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="T52" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="U52" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="V52" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="W52" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="X52" s="4">
-        <v>21.3</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>43242</v>
-      </c>
-      <c r="B53" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="C53" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="D53" s="4">
-        <v>20</v>
-      </c>
-      <c r="E53" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="G53" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H53" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="I53" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="J53" s="4">
-        <v>24</v>
-      </c>
-      <c r="K53" s="4">
-        <v>22</v>
-      </c>
-      <c r="L53" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="M53" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="N53" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="O53" s="4">
-        <v>27.7</v>
-      </c>
-      <c r="P53" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="R53" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="S53" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="T53" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="U53" s="4">
-        <v>28</v>
-      </c>
-      <c r="V53" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="W53" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="X53" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y53" s="4">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>43243</v>
-      </c>
-      <c r="B54" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C54" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="D54" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="E54" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F54" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G54" s="4">
-        <v>17</v>
-      </c>
-      <c r="H54" s="4">
-        <v>13.2</v>
-      </c>
-      <c r="I54" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="J54" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="K54" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="L54" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="M54" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="N54" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="O54" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="P54" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="R54" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="S54" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="T54" s="4">
-        <v>31</v>
-      </c>
-      <c r="U54" s="4">
-        <v>28</v>
-      </c>
-      <c r="V54" s="4">
-        <v>25.3</v>
-      </c>
-      <c r="W54" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="X54" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="Y54" s="4">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>43244</v>
-      </c>
-      <c r="B55" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C55" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D55" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="E55" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F55" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="G55" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="H55" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="I55" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="J55" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="K55" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="L55" s="4">
-        <v>23.3</v>
-      </c>
-      <c r="M55" s="4">
-        <v>24.8</v>
-      </c>
-      <c r="N55" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="O55" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="P55" s="4">
-        <v>26.4</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>29</v>
-      </c>
-      <c r="R55" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="S55" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="T55" s="4">
-        <v>30</v>
-      </c>
-      <c r="U55" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="V55" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="W55" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="X55" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="Y55" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>43245</v>
-      </c>
-      <c r="B56" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C56" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="D56" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="E56" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="F56" s="4">
-        <v>19</v>
-      </c>
-      <c r="G56" s="4">
-        <v>16</v>
-      </c>
-      <c r="H56" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I56" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="J56" s="4">
-        <v>23.3</v>
-      </c>
-      <c r="K56" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="L56" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="M56" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="N56" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="O56" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="P56" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="R56" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="S56" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="T56" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="U56" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="V56" s="4">
-        <v>25.3</v>
-      </c>
-      <c r="W56" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="X56" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>43246</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="D57" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E57" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F57" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="G57" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H57" s="4">
-        <v>13</v>
-      </c>
-      <c r="I57" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="J57" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="K57" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="L57" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="M57" s="4">
-        <v>26</v>
-      </c>
-      <c r="N57" s="4">
-        <v>25.1</v>
-      </c>
-      <c r="O57" s="4">
-        <v>28.6</v>
-      </c>
-      <c r="P57" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="R57" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="S57" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="T57" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="U57" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="V57" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="W57" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="X57" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="Y57" s="4">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>43247</v>
-      </c>
-      <c r="B58" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="C58" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D58" s="4">
-        <v>20</v>
-      </c>
-      <c r="E58" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="F58" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="G58" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="I58" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="J58" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="K58" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="L58" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="M58" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="N58" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="O58" s="4">
-        <v>29</v>
-      </c>
-      <c r="P58" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="R58" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="S58" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="T58" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="U58" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="V58" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="W58" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="X58" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y58" s="4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>43248</v>
-      </c>
-      <c r="B59" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C59" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D59" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E59" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F59" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G59" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="H59" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="I59" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J59" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="K59" s="4">
-        <v>23</v>
-      </c>
-      <c r="L59" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="M59" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="N59" s="4">
-        <v>25.3</v>
-      </c>
-      <c r="O59" s="4">
-        <v>26.8</v>
-      </c>
-      <c r="P59" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="R59" s="4">
-        <v>31</v>
-      </c>
-      <c r="S59" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="T59" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="U59" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="V59" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="W59" s="4">
-        <v>23.3</v>
-      </c>
-      <c r="X59" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="Y59" s="4">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>43249</v>
-      </c>
-      <c r="B60" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="C60" s="4">
-        <v>18</v>
-      </c>
-      <c r="D60" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="E60" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="F60" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="G60" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="H60" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="I60" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J60" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="K60" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="L60" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="M60" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="N60" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="O60" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="P60" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="R60" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="S60" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="T60" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="U60" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="V60" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="W60" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="X60" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>43250</v>
-      </c>
-      <c r="B61" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="C61" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D61" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="E61" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F61" s="4">
-        <v>19</v>
-      </c>
-      <c r="G61" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H61" s="4">
-        <v>13.2</v>
-      </c>
-      <c r="I61" s="4">
-        <v>18</v>
-      </c>
-      <c r="J61" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="K61" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="L61" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="M61" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="N61" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="O61" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="P61" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="Q61" s="4">
-        <v>28.4</v>
-      </c>
-      <c r="R61" s="4">
-        <v>30.4</v>
-      </c>
-      <c r="S61" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="T61" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="U61" s="4">
-        <v>28</v>
-      </c>
-      <c r="V61" s="4">
-        <v>22.7</v>
-      </c>
-      <c r="W61" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="X61" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="Y61" s="4">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B62" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="C62" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="D62" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="E62" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F62" s="4">
-        <v>16</v>
-      </c>
-      <c r="G62" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H62" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="I62" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J62" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="K62" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="L62" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="M62" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="N62" s="4">
-        <v>26.4</v>
-      </c>
-      <c r="O62" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="P62" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="Q62" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="R62" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="S62" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="T62" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="U62" s="4">
-        <v>27</v>
-      </c>
-      <c r="V62" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="W62" s="4">
-        <v>21.3</v>
-      </c>
-      <c r="X62" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="Y62" s="4">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B63:Y92) - AVERAGE(B2:Y31)</f>
+        <v>11.948888888888931</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5252,7 +3696,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5329,7 +3773,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5406,7 +3850,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5483,7 +3927,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5560,7 +4004,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5637,7 +4081,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5714,7 +4158,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5791,7 +4235,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5868,7 +4312,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5945,7 +4389,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6022,7 +4466,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6099,7 +4543,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6176,7 +4620,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6253,7 +4697,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6330,7 +4774,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6407,7 +4851,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6484,7 +4928,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6561,7 +5005,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6638,7 +5082,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6715,7 +5159,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6792,7 +5236,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6869,7 +5313,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6946,7 +5390,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7023,7 +5467,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7100,7 +5544,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7177,7 +5621,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7254,7 +5698,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7331,7 +5775,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7408,7 +5852,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7485,13 +5929,13 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="5"/>
     </row>
   </sheetData>
